--- a/example notebooks/Example publication - integrated modelling/data/ODYM_database/6_CR_ESSENZ_CF_elements_v1.xlsx
+++ b/example notebooks/Example publication - integrated modelling/data/ODYM_database/6_CR_ESSENZ_CF_elements_v1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{DC36853B-45A3-422C-9DC9-9B925127331E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87909CE3-80FD-436B-89D5-1BA01E5A4EB3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F4E1ED-1003-4677-BFDF-11179C11F8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -974,7 +974,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,12 +1450,12 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="12" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="99.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" customWidth="1"/>
